--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3099780.734015054</v>
+        <v>3097236.141320769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.99298492937308</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663202</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.1712092340063</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663202</v>
+        <v>15.40229248514481</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.573575257956</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.8743950623647</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>92.85788772760051</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911912419</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>162.0722876753449</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.22601502246892</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589165</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89889574100908</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>216.4127801057179</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>18.36187121825824</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582092</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>73.73431546344879</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612562</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576168</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>8.616048582069491</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.93222849083776</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187871</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518786</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097415</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097415</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>407.071751582092</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656069</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>672.242026426225</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262266</v>
+        <v>540.7559564928854</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262266</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262266</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262266</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262266</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262266</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262266</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198756</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652808</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652808</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487957</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="W3" t="n">
-        <v>393.8416170062758</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897907</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>732.4178748043175</v>
+        <v>731.3583444302171</v>
       </c>
       <c r="C5" t="n">
-        <v>363.4553578639058</v>
+        <v>362.3958274898054</v>
       </c>
       <c r="D5" t="n">
-        <v>363.4553578639058</v>
+        <v>362.3958274898054</v>
       </c>
       <c r="E5" t="n">
-        <v>363.4553578639058</v>
+        <v>147.675044400961</v>
       </c>
       <c r="F5" t="n">
-        <v>356.5098571147024</v>
+        <v>140.7295436517576</v>
       </c>
       <c r="G5" t="n">
         <v>128.3539025062531</v>
@@ -4562,55 +4562,55 @@
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746964</v>
+        <v>277.9807166746978</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>521.2049416030762</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709148</v>
+        <v>823.5081935709175</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332756</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540646</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540646</v>
+        <v>1586.994975598229</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540646</v>
+        <v>1375.135640734665</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.08060221201</v>
+        <v>1121.497676406029</v>
       </c>
       <c r="V5" t="n">
-        <v>1119.017714868439</v>
+        <v>1121.497676406029</v>
       </c>
       <c r="W5" t="n">
-        <v>1119.017714868439</v>
+        <v>1121.497676406029</v>
       </c>
       <c r="X5" t="n">
-        <v>1119.017714868439</v>
+        <v>1121.497676406029</v>
       </c>
       <c r="Y5" t="n">
-        <v>1119.017714868439</v>
+        <v>731.3583444302171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.8650854624952</v>
+        <v>295.604872586899</v>
       </c>
       <c r="C6" t="n">
-        <v>477.4120561813683</v>
+        <v>121.151843305772</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813683</v>
+        <v>121.151843305772</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759128</v>
+        <v>121.151843305772</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027977</v>
+        <v>121.151843305772</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675756</v>
+        <v>121.151843305772</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787494</v>
+        <v>61.66788464787516</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189964</v>
+        <v>399.8722171189972</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223481</v>
+        <v>668.6238185223492</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352453</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906545</v>
+        <v>1303.087768902143</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906545</v>
+        <v>1107.547150621897</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906545</v>
+        <v>879.4320085774538</v>
       </c>
       <c r="V6" t="n">
-        <v>1282.169279416298</v>
+        <v>879.4320085774538</v>
       </c>
       <c r="W6" t="n">
-        <v>1027.931922688096</v>
+        <v>879.4320085774538</v>
       </c>
       <c r="X6" t="n">
-        <v>820.0804224825633</v>
+        <v>671.5805083719209</v>
       </c>
       <c r="Y6" t="n">
-        <v>820.0804224825633</v>
+        <v>463.820209606967</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="E7" t="n">
-        <v>354.4392364317894</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="F7" t="n">
-        <v>354.4392364317894</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574653</v>
+        <v>64.24066662574674</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347961</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195352</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934699</v>
+        <v>342.3101561934708</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857984</v>
+        <v>332.5350520040907</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857984</v>
+        <v>332.5350520040907</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857984</v>
+        <v>332.5350520040907</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857984</v>
+        <v>108.1933045399991</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857984</v>
+        <v>108.1933045399991</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675763</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>789.5335540906474</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>420.5710371502357</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4835,19 +4835,19 @@
         <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="W8" t="n">
-        <v>1939.738484391661</v>
+        <v>1351.910009448964</v>
       </c>
       <c r="X8" t="n">
-        <v>1566.272726130581</v>
+        <v>978.4442511878838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1176.133394154769</v>
+        <v>588.304919212072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>801.6493618097749</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>593.797861604242</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.8483030668292</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>117.8483030668292</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4984,28 +4984,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>121.9985297867048</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.4967678970689</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6057892068301</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>269.7158417089197</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5197424237996</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>102.5197424237996</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,34 +7664,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.64978773649604</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.3624843553861</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253102</v>
+        <v>270592.3620253117</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231946</v>
+        <v>115410.0540231938</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742653</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881929</v>
+        <v>62913.63765881956</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197534</v>
+        <v>27875.25362197506</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263465</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189196</v>
       </c>
-      <c r="G4" t="n">
-        <v>16046.583971892</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189196</v>
       </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189195</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189202</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189202</v>
-      </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189194</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>76435.73471936812</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353408</v>
+        <v>-208467.7191353401</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.028960223</v>
+        <v>164779.0289602218</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632841</v>
+        <v>343599.4226632848</v>
       </c>
       <c r="E6" t="n">
-        <v>-12359.0466413087</v>
+        <v>-12393.78456674473</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="J6" t="n">
-        <v>540019.2162044117</v>
+        <v>539984.4782789762</v>
       </c>
       <c r="K6" t="n">
-        <v>526170.5232741372</v>
+        <v>526135.7853487013</v>
       </c>
       <c r="L6" t="n">
-        <v>561208.907310981</v>
+        <v>561174.1693855457</v>
       </c>
       <c r="M6" t="n">
-        <v>431937.7803813586</v>
+        <v>431903.0424559225</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329565</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329564</v>
+        <v>589049.4230075206</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.234738575544338e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>758.8996292950609</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>431.9757039594704</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.094696057110285e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821553</v>
+        <v>210.4296883821564</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262392</v>
+        <v>94.81103524262323</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039899</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.4501167931505</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666938</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931494</v>
+        <v>244.4501167931505</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666938</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.4501167931505</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666938</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>279.6900566913099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753912</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>28.60460395604687</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988694</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681412</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>86.52244598482486</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098415</v>
+        <v>190.2804032921595</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.030874844193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3567948143058</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>186.3774896716847</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425926</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>10.74252923333714</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.3208508493752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074813</v>
+        <v>44.33060630074804</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>70.72829947408042</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.2079476241003</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304066</v>
+        <v>30.24193919304058</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589176</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2387475828189</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>166.3210615577627</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>330.8790974991548</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27935,13 +27935,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.391328691216</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>74.88115755476356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,7 +28056,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077024</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.163892467748814e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.707434855954489e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30706,10 +30706,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429362</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>481.4474502511772</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>535.7030533968094</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>544.3712888610692</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>514.0343715191485</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>438.716443486096</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634653</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868535</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>56.2015291506248</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>354.4276051721886</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658081</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468662</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872487</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.579516597378874</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>96.75348224635553</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391198</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.847259438830795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.990063407046</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.68103528119</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>305.3568201695367</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>314.9582252644782</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>283.9361600974618</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308264</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092665</v>
+        <v>27.3836649809268</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.4662640437898</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>245.7813799930005</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872787</v>
+        <v>68.38629016872807</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501444</v>
+        <v>68.57507023501461</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230838</v>
+        <v>75.59399159230858</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761528</v>
+        <v>81.73343028761545</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569163</v>
+        <v>54.9757801756918</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235199</v>
+        <v>27.78676100235214</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
